--- a/trunk/InventoryApp/InventoryApp.View/Resources/Factura.xlsx
+++ b/trunk/InventoryApp/InventoryApp.View/Resources/Factura.xlsx
@@ -45,15 +45,6 @@
     <t>ALMACÉN DE DESTINO:</t>
   </si>
   <si>
-    <t>NÚMERO DE PEDIMENTO:</t>
-  </si>
-  <si>
-    <t>NÚMERO DE FACTURA:</t>
-  </si>
-  <si>
-    <t>IMPORTE:</t>
-  </si>
-  <si>
     <t>IVA $</t>
   </si>
   <si>
@@ -64,6 +55,15 @@
   </si>
   <si>
     <t>CANTIDAD DE ITEMS:</t>
+  </si>
+  <si>
+    <t>NÚMERO DE FACTURA:</t>
+  </si>
+  <si>
+    <t>NÚMERO DE PEDIMENTO:</t>
+  </si>
+  <si>
+    <t>IMPORTE $</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,6 +392,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,13 +435,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,28 +873,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
@@ -899,27 +918,27 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
       <c r="T8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="27"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="34"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="9"/>
@@ -1016,28 +1035,28 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
       <c r="AH11" s="17"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
@@ -1086,7 +1105,6 @@
       <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1094,28 +1112,28 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
       <c r="AH13" s="17"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
@@ -1236,41 +1254,39 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="34"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="41"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
@@ -1281,76 +1297,76 @@
     </row>
     <row r="18" spans="1:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
       <c r="AH18" s="18"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
+      <c r="C19" s="24" t="s">
+        <v>14</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="7" t="s">
-        <v>13</v>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23" t="s">
+        <v>10</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="34"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="30"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
@@ -1361,76 +1377,76 @@
     </row>
     <row r="20" spans="1:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
       <c r="AH20" s="18"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="11" t="s">
-        <v>10</v>
+      <c r="C21" s="23" t="s">
+        <v>13</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="7" t="s">
-        <v>12</v>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23" t="s">
+        <v>9</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="34"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="27"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
@@ -1439,74 +1455,74 @@
     </row>
     <row r="22" spans="1:40" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
       <c r="AH22" s="18"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="7" t="s">
-        <v>14</v>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="34"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="27"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
@@ -1817,18 +1833,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="L17:S17"/>
     <mergeCell ref="Z19:AG19"/>
     <mergeCell ref="Z21:AG21"/>
     <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L17:S17"/>
     <mergeCell ref="C6:V6"/>
     <mergeCell ref="W8:AE8"/>
     <mergeCell ref="L11:AG11"/>
     <mergeCell ref="L13:AG13"/>
     <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L21:S21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
